--- a/chatbot/item.xlsx
+++ b/chatbot/item.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\챗봇\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -64,6 +64,26 @@
   </si>
   <si>
     <t>water5</t>
+  </si>
+  <si>
+    <t>water6</t>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ater7</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -166,6 +186,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>water9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>rs</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -182,6 +206,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>water11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>sn</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -194,107 +222,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>water6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>water7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>water9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>water11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>water12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>water13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ra</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>water14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>민트초코</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>water15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>water16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>water17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>water18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>water19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>water20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌체라떼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>su</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유자민트티</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>so</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>말차라떼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스팀우유</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>so</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ra</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자바칩프라푸치노</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿨라임피지오</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -677,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -719,7 +647,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -736,7 +664,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -753,7 +681,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -770,7 +698,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -778,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>2200</v>
@@ -795,13 +723,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -812,13 +740,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>5500</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -829,16 +757,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>4500</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -846,16 +774,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>5000</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -863,7 +791,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>5000</v>
@@ -872,7 +800,7 @@
         <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -880,16 +808,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>5000</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -897,16 +825,16 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>5500</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -914,135 +842,16 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>5800</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15">
-        <v>6200</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16">
-        <v>5800</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17">
-        <v>5900</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18">
-        <v>6100</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19">
-        <v>3100</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20">
-        <v>6300</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21">
-        <v>5500</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
